--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>172.5874931211407</v>
+        <v>208.1229459035787</v>
       </c>
       <c r="R2">
-        <v>690.349972484563</v>
+        <v>832.491783614315</v>
       </c>
       <c r="S2">
-        <v>0.0758475269892952</v>
+        <v>0.0276436163342563</v>
       </c>
       <c r="T2">
-        <v>0.0446554428355141</v>
+        <v>0.01537582505419148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>124.544765990252</v>
+        <v>122.63396671706</v>
       </c>
       <c r="R3">
-        <v>747.2685959415119</v>
+        <v>735.8038003023599</v>
       </c>
       <c r="S3">
-        <v>0.05473405012720457</v>
+        <v>0.0162886716347218</v>
       </c>
       <c r="T3">
-        <v>0.0483372367623108</v>
+        <v>0.01359003263496448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>88.64625414512548</v>
+        <v>80.14176120819083</v>
       </c>
       <c r="R4">
-        <v>531.8775248707529</v>
+        <v>480.850567249145</v>
       </c>
       <c r="S4">
-        <v>0.03895762683714845</v>
+        <v>0.01064470853789081</v>
       </c>
       <c r="T4">
-        <v>0.03440461701168786</v>
+        <v>0.008881137741843358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>146.7178095956118</v>
+        <v>177.6452263774237</v>
       </c>
       <c r="R5">
-        <v>586.871238382447</v>
+        <v>710.580905509695</v>
       </c>
       <c r="S5">
-        <v>0.06447850201580053</v>
+        <v>0.02359545921411622</v>
       </c>
       <c r="T5">
-        <v>0.03796189770686309</v>
+        <v>0.01312417480270031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H6">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I6">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J6">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>127.658225532206</v>
+        <v>61.80240211275083</v>
       </c>
       <c r="R6">
-        <v>765.9493531932359</v>
+        <v>370.814412676505</v>
       </c>
       <c r="S6">
-        <v>0.05610233123708013</v>
+        <v>0.008208810831131608</v>
       </c>
       <c r="T6">
-        <v>0.04954560573576959</v>
+        <v>0.006848809380595863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H7">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I7">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J7">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>83.51169072033584</v>
+        <v>89.07309352357166</v>
       </c>
       <c r="R7">
-        <v>501.070144322015</v>
+        <v>534.4385611414299</v>
       </c>
       <c r="S7">
-        <v>0.03670112533233416</v>
+        <v>0.01183099927968396</v>
       </c>
       <c r="T7">
-        <v>0.03241183468991141</v>
+        <v>0.009870888794419013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>29.3340881166495</v>
+        <v>35.92509630456451</v>
       </c>
       <c r="R8">
-        <v>176.004528699897</v>
+        <v>215.550577827387</v>
       </c>
       <c r="S8">
-        <v>0.01289153692366484</v>
+        <v>0.004771696723314128</v>
       </c>
       <c r="T8">
-        <v>0.01138489242182971</v>
+        <v>0.003981141964686649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>21.168435058392</v>
@@ -1013,10 +1013,10 @@
         <v>190.515915525528</v>
       </c>
       <c r="S9">
-        <v>0.009302953651951841</v>
+        <v>0.002811665453851077</v>
       </c>
       <c r="T9">
-        <v>0.012323564733967</v>
+        <v>0.003518760719104915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.534717</v>
       </c>
       <c r="I10">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J10">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>15.066891483723</v>
+        <v>13.833652396769</v>
       </c>
       <c r="R10">
-        <v>135.602023353507</v>
+        <v>124.502871570921</v>
       </c>
       <c r="S10">
-        <v>0.006621490571476867</v>
+        <v>0.001837434011408406</v>
       </c>
       <c r="T10">
-        <v>0.008771447300054733</v>
+        <v>0.002299523442390925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.534717</v>
       </c>
       <c r="I11">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J11">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>24.9371091562155</v>
+        <v>30.6641914852185</v>
       </c>
       <c r="R11">
-        <v>149.622654937293</v>
+        <v>183.985148911311</v>
       </c>
       <c r="S11">
-        <v>0.01095918380617216</v>
+        <v>0.004072924976808015</v>
       </c>
       <c r="T11">
-        <v>0.009678374999282764</v>
+        <v>0.003398139798987249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.534717</v>
       </c>
       <c r="I12">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J12">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>21.697618806876</v>
+        <v>10.668007980161</v>
       </c>
       <c r="R12">
-        <v>195.278569261884</v>
+        <v>96.012071821449</v>
       </c>
       <c r="S12">
-        <v>0.009535515571240305</v>
+        <v>0.001416962067176295</v>
       </c>
       <c r="T12">
-        <v>0.01263163805930337</v>
+        <v>0.001773308576101221</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>0.534717</v>
       </c>
       <c r="I13">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J13">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>14.194187829365</v>
+        <v>15.375332350246</v>
       </c>
       <c r="R13">
-        <v>127.747690464285</v>
+        <v>138.377991152214</v>
       </c>
       <c r="S13">
-        <v>0.006237960961187472</v>
+        <v>0.002042205325590537</v>
       </c>
       <c r="T13">
-        <v>0.008263388015162687</v>
+        <v>0.002555791931146108</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H14">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I14">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J14">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>49.55641051115667</v>
+        <v>154.8298237402052</v>
       </c>
       <c r="R14">
-        <v>297.33846306694</v>
+        <v>928.978942441231</v>
       </c>
       <c r="S14">
-        <v>0.02177869969464856</v>
+        <v>0.02056503777607331</v>
       </c>
       <c r="T14">
-        <v>0.01923340518505237</v>
+        <v>0.01715790831711287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H15">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I15">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J15">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>35.76152268517333</v>
+        <v>91.23162930896265</v>
       </c>
       <c r="R15">
-        <v>321.85370416656</v>
+        <v>821.084663780664</v>
       </c>
       <c r="S15">
-        <v>0.01571622026596158</v>
+        <v>0.01211770353920735</v>
       </c>
       <c r="T15">
-        <v>0.02081917905505482</v>
+        <v>0.01516513963676557</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H16">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I16">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J16">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>25.45369934546</v>
+        <v>59.62021490817477</v>
       </c>
       <c r="R16">
-        <v>229.08329410914</v>
+        <v>536.581934173573</v>
       </c>
       <c r="S16">
-        <v>0.01118621119739584</v>
+        <v>0.00791896510753335</v>
       </c>
       <c r="T16">
-        <v>0.01481830426941998</v>
+        <v>0.009910476126590659</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H17">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I17">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J17">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>42.12824388447667</v>
+        <v>132.1563990404405</v>
       </c>
       <c r="R17">
-        <v>252.76946330686</v>
+        <v>792.9383942426429</v>
       </c>
       <c r="S17">
-        <v>0.01851422172750738</v>
+        <v>0.01755347434339769</v>
       </c>
       <c r="T17">
-        <v>0.01635044943746336</v>
+        <v>0.01464528812007453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H18">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I18">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J18">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>36.65551492285333</v>
+        <v>45.97693437547077</v>
       </c>
       <c r="R18">
-        <v>329.89963430568</v>
+        <v>413.7924093792369</v>
       </c>
       <c r="S18">
-        <v>0.01610910563180938</v>
+        <v>0.006106816951791663</v>
       </c>
       <c r="T18">
-        <v>0.02133963185103729</v>
+        <v>0.007642597585461771</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H19">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I19">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J19">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>23.97937158118889</v>
+        <v>66.26454046368688</v>
       </c>
       <c r="R19">
-        <v>215.8143442307</v>
+        <v>596.3808641731819</v>
       </c>
       <c r="S19">
-        <v>0.01053828409173281</v>
+        <v>0.008801487626417765</v>
       </c>
       <c r="T19">
-        <v>0.01395999926992608</v>
+        <v>0.01101494094438134</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H20">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I20">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J20">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>15.97000230887325</v>
+        <v>1636.501118751658</v>
       </c>
       <c r="R20">
-        <v>63.880009235493</v>
+        <v>9819.00671250995</v>
       </c>
       <c r="S20">
-        <v>0.007018383309450808</v>
+        <v>0.2173657924211333</v>
       </c>
       <c r="T20">
-        <v>0.004132092727520833</v>
+        <v>0.18135353692263</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H21">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I21">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J21">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>11.524474713972</v>
+        <v>964.2887902538158</v>
       </c>
       <c r="R21">
-        <v>69.14684828383199</v>
+        <v>8678.599112284344</v>
       </c>
       <c r="S21">
-        <v>0.005064694382529215</v>
+        <v>0.1280802039269149</v>
       </c>
       <c r="T21">
-        <v>0.004472779392866089</v>
+        <v>0.1602906170275996</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H22">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I22">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J22">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>8.2026852454305</v>
+        <v>630.1663726050369</v>
       </c>
       <c r="R22">
-        <v>49.21611147258299</v>
+        <v>5671.497353445334</v>
       </c>
       <c r="S22">
-        <v>0.00360485791459285</v>
+        <v>0.08370089782946945</v>
       </c>
       <c r="T22">
-        <v>0.003183555211193065</v>
+        <v>0.1047505246517678</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H23">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I23">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J23">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>13.57620830815425</v>
+        <v>1396.8503590288</v>
       </c>
       <c r="R23">
-        <v>54.304833232617</v>
+        <v>8381.102154172802</v>
       </c>
       <c r="S23">
-        <v>0.005966375705696425</v>
+        <v>0.1855345417763296</v>
       </c>
       <c r="T23">
-        <v>0.003512720319787484</v>
+        <v>0.1547959547713336</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H24">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I24">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J24">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>11.812571812866</v>
+        <v>485.9613136838529</v>
       </c>
       <c r="R24">
-        <v>70.875430877196</v>
+        <v>4373.651823154677</v>
       </c>
       <c r="S24">
-        <v>0.005191305251536754</v>
+        <v>0.06454707841292674</v>
       </c>
       <c r="T24">
-        <v>0.004584593145688622</v>
+        <v>0.08077978258092629</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H25">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I25">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J25">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>7.727569764777501</v>
+        <v>700.3947429685579</v>
       </c>
       <c r="R25">
-        <v>46.365418588665</v>
+        <v>6303.552686717021</v>
       </c>
       <c r="S25">
-        <v>0.003396057534042876</v>
+        <v>0.09302887518285866</v>
       </c>
       <c r="T25">
-        <v>0.002999157502504443</v>
+        <v>0.1164243602622061</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H26">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I26">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J26">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>99.43895831335416</v>
+        <v>83.73459180592734</v>
       </c>
       <c r="R26">
-        <v>596.633749880125</v>
+        <v>502.407550835564</v>
       </c>
       <c r="S26">
-        <v>0.04370072789205873</v>
+        <v>0.01112192084221702</v>
       </c>
       <c r="T26">
-        <v>0.03859338795310245</v>
+        <v>0.009279287507216197</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H27">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I27">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J27">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>71.75839668033332</v>
+        <v>49.33961077675733</v>
       </c>
       <c r="R27">
-        <v>645.8255701229999</v>
+        <v>444.056496990816</v>
       </c>
       <c r="S27">
-        <v>0.03153587105584674</v>
+        <v>0.006553459372164135</v>
       </c>
       <c r="T27">
-        <v>0.04177537188065263</v>
+        <v>0.008201564443392886</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H28">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I28">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J28">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>51.07491285237499</v>
+        <v>32.24362230815689</v>
       </c>
       <c r="R28">
-        <v>459.674215671375</v>
+        <v>290.192600773412</v>
       </c>
       <c r="S28">
-        <v>0.02244604032997503</v>
+        <v>0.004282710493278819</v>
       </c>
       <c r="T28">
-        <v>0.0297341297588476</v>
+        <v>0.005359753392569205</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H29">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I29">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J29">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>84.53373931310416</v>
+        <v>71.472419595082</v>
       </c>
       <c r="R29">
-        <v>507.2024358786251</v>
+        <v>428.834517570492</v>
       </c>
       <c r="S29">
-        <v>0.03715028799657168</v>
+        <v>0.009493216315911542</v>
       </c>
       <c r="T29">
-        <v>0.03280850334490006</v>
+        <v>0.007920419935840799</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H30">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I30">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J30">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>73.55226463683333</v>
+        <v>24.86510505158089</v>
       </c>
       <c r="R30">
-        <v>661.9703817315</v>
+        <v>223.785945464228</v>
       </c>
       <c r="S30">
-        <v>0.03232422741809117</v>
+        <v>0.003302670069235556</v>
       </c>
       <c r="T30">
-        <v>0.04281970264129395</v>
+        <v>0.004133246255123324</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H31">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I31">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J31">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>48.11655457784723</v>
+        <v>35.83698613675644</v>
       </c>
       <c r="R31">
-        <v>433.0489912006251</v>
+        <v>322.532875230808</v>
       </c>
       <c r="S31">
-        <v>0.02114592202468304</v>
+        <v>0.004759993623190024</v>
       </c>
       <c r="T31">
-        <v>0.02801187114115367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H32">
-        <v>2.938298</v>
-      </c>
-      <c r="I32">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J32">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>164.5772705</v>
-      </c>
-      <c r="N32">
-        <v>329.154541</v>
-      </c>
-      <c r="O32">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P32">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q32">
-        <v>161.1923549185364</v>
-      </c>
-      <c r="R32">
-        <v>967.154129511218</v>
-      </c>
-      <c r="S32">
-        <v>0.07083967249915477</v>
-      </c>
-      <c r="T32">
-        <v>0.06256058182791532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H33">
-        <v>2.938298</v>
-      </c>
-      <c r="I33">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J33">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>118.764328</v>
-      </c>
-      <c r="N33">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O33">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P33">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q33">
-        <v>116.3216624779147</v>
-      </c>
-      <c r="R33">
-        <v>1046.894962301232</v>
-      </c>
-      <c r="S33">
-        <v>0.05112021893753666</v>
-      </c>
-      <c r="T33">
-        <v>0.06771863548509914</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H34">
-        <v>2.938298</v>
-      </c>
-      <c r="I34">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J34">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N34">
-        <v>253.595871</v>
-      </c>
-      <c r="O34">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P34">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q34">
-        <v>82.793360063062</v>
-      </c>
-      <c r="R34">
-        <v>745.140240567558</v>
-      </c>
-      <c r="S34">
-        <v>0.03638543847154539</v>
-      </c>
-      <c r="T34">
-        <v>0.04819956361749528</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H35">
-        <v>2.938298</v>
-      </c>
-      <c r="I35">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J35">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>139.9082645</v>
-      </c>
-      <c r="N35">
-        <v>279.816529</v>
-      </c>
-      <c r="O35">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P35">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q35">
-        <v>137.0307245879403</v>
-      </c>
-      <c r="R35">
-        <v>822.184347527642</v>
-      </c>
-      <c r="S35">
-        <v>0.06022129062533651</v>
-      </c>
-      <c r="T35">
-        <v>0.05318317895941695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H36">
-        <v>2.938298</v>
-      </c>
-      <c r="I36">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J36">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>121.733284</v>
-      </c>
-      <c r="N36">
-        <v>365.199852</v>
-      </c>
-      <c r="O36">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P36">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q36">
-        <v>119.2295549702107</v>
-      </c>
-      <c r="R36">
-        <v>1073.065994731896</v>
-      </c>
-      <c r="S36">
-        <v>0.05239815889890212</v>
-      </c>
-      <c r="T36">
-        <v>0.06941151458879179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H37">
-        <v>2.938298</v>
-      </c>
-      <c r="I37">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J37">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N37">
-        <v>238.907105</v>
-      </c>
-      <c r="O37">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P37">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q37">
-        <v>77.99780764525445</v>
-      </c>
-      <c r="R37">
-        <v>701.9802688072901</v>
-      </c>
-      <c r="S37">
-        <v>0.03427792311883712</v>
-      </c>
-      <c r="T37">
-        <v>0.0454077511621596</v>
+        <v>0.005957066677875851</v>
       </c>
     </row>
   </sheetData>
